--- a/Manufactura/BOM-master-v11.xlsx
+++ b/Manufactura/BOM-master-v11.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="13875" windowHeight="4410"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="13875" windowHeight="4410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-master-v11" sheetId="1" r:id="rId1"/>
+    <sheet name="CIL stock" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="177">
   <si>
     <t>Qty</t>
   </si>
@@ -338,6 +339,213 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>SOC   RV1.1</t>
+  </si>
+  <si>
+    <t>4 pin connector</t>
+  </si>
+  <si>
+    <t>Grove-Universal 4Pin 90°</t>
+  </si>
+  <si>
+    <t>BLE</t>
+  </si>
+  <si>
+    <t>Bluetooth smart 4.0 Mini</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Crius Neo-6 GPS</t>
+  </si>
+  <si>
+    <t>g.top013</t>
+  </si>
+  <si>
+    <t>USB Bluetooth dongle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grove-Universal 4Pin </t>
+  </si>
+  <si>
+    <t>Pocket AVR Programer</t>
+  </si>
+  <si>
+    <t>RTC ChronoDot V2.1</t>
+  </si>
+  <si>
+    <t>Mini USB Breakout</t>
+  </si>
+  <si>
+    <t>Mini USB Breakout Sparkfun</t>
+  </si>
+  <si>
+    <t>Micro SD Breakout Boeard</t>
+  </si>
+  <si>
+    <t>Micro SD Breakout Boeard Sparkfun</t>
+  </si>
+  <si>
+    <t>Atmega 2560V Shield</t>
+  </si>
+  <si>
+    <t>Pulsadores</t>
+  </si>
+  <si>
+    <t>6 Pin- Pulsadores</t>
+  </si>
+  <si>
+    <t>2Pin Screw terminal block</t>
+  </si>
+  <si>
+    <t>2Pin Screw terminal block 3.5mm</t>
+  </si>
+  <si>
+    <t>Current sensor</t>
+  </si>
+  <si>
+    <t>ACS711EX -15.5 a +15.5 Amps (Item 2452)</t>
+  </si>
+  <si>
+    <t>ACS709 -75 a +75 Amps (Item 2199)</t>
+  </si>
+  <si>
+    <t>AVR Programer</t>
+  </si>
+  <si>
+    <t>TEMP SENSOR  MCP9808-40 a +125°C</t>
+  </si>
+  <si>
+    <t>Temp Sensor</t>
+  </si>
+  <si>
+    <t>Microcontroller Mega Pro</t>
+  </si>
+  <si>
+    <t>Microcontroller ATMega 328</t>
+  </si>
+  <si>
+    <t>Microcontroller ATMega 328 bootloader UNO</t>
+  </si>
+  <si>
+    <t>Battery CR 1220</t>
+  </si>
+  <si>
+    <t>Lithium Coin 3V CR-1220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACS711 25 Amps </t>
+  </si>
+  <si>
+    <t>3.3V LDO Regulator</t>
+  </si>
+  <si>
+    <t>Microcontroller ATMega 1280</t>
+  </si>
+  <si>
+    <t>Microcontroller ATMega 1280 128KB flash 100TQFP</t>
+  </si>
+  <si>
+    <t>IC RTC CLK/Calendar 12C 16-SOIC DS3231</t>
+  </si>
+  <si>
+    <t>USB FS serial UART 28-SSOP</t>
+  </si>
+  <si>
+    <t>LED Blue</t>
+  </si>
+  <si>
+    <t>Blue LED 0805</t>
+  </si>
+  <si>
+    <t>LED Green</t>
+  </si>
+  <si>
+    <t>Green LED 0805</t>
+  </si>
+  <si>
+    <t>LED Red</t>
+  </si>
+  <si>
+    <t>Red LED 0805</t>
+  </si>
+  <si>
+    <t>Antena GPS</t>
+  </si>
+  <si>
+    <t>Cab. 718   20cm</t>
+  </si>
+  <si>
+    <t>Cab. 011  10cm</t>
+  </si>
+  <si>
+    <t>Conn Header</t>
+  </si>
+  <si>
+    <t>Conn Header 2 pos. R/A tin</t>
+  </si>
+  <si>
+    <t>Conn USB</t>
+  </si>
+  <si>
+    <t>Conn USB 5 pos</t>
+  </si>
+  <si>
+    <t>Conn Micro SD</t>
+  </si>
+  <si>
+    <t>Conn Micro SD 8 pin PCB Gold</t>
+  </si>
+  <si>
+    <t>Cer. Resonator 8Mhz SMD</t>
+  </si>
+  <si>
+    <t>6.5 A / 250V</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Switch Tactile</t>
+  </si>
+  <si>
+    <t>Switch Tactile 0.05A / 12V</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Cap. Cer. 0.1 Uf 50V   0805</t>
+  </si>
+  <si>
+    <t>Cap. Cer. 10 Uf 50V   0805</t>
+  </si>
+  <si>
+    <t>Resistors</t>
+  </si>
+  <si>
+    <t>Res. 1K ohm 1/8W 0805</t>
+  </si>
+  <si>
+    <t>Res. 10K ohm 1/8W 0805</t>
+  </si>
+  <si>
+    <t>Res. 3.3K ohm 1/8W 0805</t>
+  </si>
+  <si>
+    <t>porta fusible</t>
+  </si>
+  <si>
+    <t>cables</t>
+  </si>
+  <si>
+    <t>8 pin fem.</t>
   </si>
 </sst>
 </file>
@@ -345,10 +553,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +705,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -859,19 +1073,20 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -918,7 +1133,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="26">
     <dxf>
       <font>
         <strike val="0"/>
@@ -971,7 +1186,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -984,7 +1199,144 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1067,7 +1419,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B1:I24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B1:I24" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="B1:I24"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Value" dataDxfId="23"/>
+    <tableColumn id="2" name="Device" dataDxfId="22"/>
+    <tableColumn id="3" name="Package" dataDxfId="21"/>
+    <tableColumn id="4" name="Parts" dataDxfId="20"/>
+    <tableColumn id="5" name="Description" dataDxfId="19"/>
+    <tableColumn id="6" name="Price" dataDxfId="18"/>
+    <tableColumn id="7" name="Total Price" dataDxfId="17">
+      <calculatedColumnFormula>A2*G2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Link" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:A24" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:A24"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Qty" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla14" displayName="Tabla14" ref="B1:I24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="B1:I24"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Value" dataDxfId="10"/>
@@ -1085,9 +1466,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:A24" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A24"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla25" displayName="Tabla25" ref="A1:A31" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A31"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Qty" dataDxfId="0"/>
   </tableColumns>
@@ -1384,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +2015,7 @@
         <v>0.11</v>
       </c>
       <c r="H8" s="9">
-        <f>A8*G8</f>
+        <f t="shared" ref="H8:H24" si="2">A8*G8</f>
         <v>0.11</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -1664,7 +2045,7 @@
         <v>0.63</v>
       </c>
       <c r="H9" s="9">
-        <f>A9*G9</f>
+        <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -1694,7 +2075,7 @@
         <v>0.46</v>
       </c>
       <c r="H10" s="9">
-        <f>A10*G10</f>
+        <f t="shared" si="2"/>
         <v>0.46</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -1724,7 +2105,7 @@
         <v>3.05</v>
       </c>
       <c r="H11" s="9">
-        <f>A11*G11</f>
+        <f t="shared" si="2"/>
         <v>3.05</v>
       </c>
       <c r="I11" s="5" t="s">
@@ -1754,7 +2135,7 @@
         <v>0.41</v>
       </c>
       <c r="H12" s="9">
-        <f>A12*G12</f>
+        <f t="shared" si="2"/>
         <v>0.41</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -1784,7 +2165,7 @@
         <v>15.68</v>
       </c>
       <c r="H13" s="9">
-        <f>A13*G13</f>
+        <f t="shared" si="2"/>
         <v>15.68</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -1814,7 +2195,7 @@
         <v>0.44</v>
       </c>
       <c r="H14" s="9">
-        <f>A14*G14</f>
+        <f t="shared" si="2"/>
         <v>0.88</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -1844,7 +2225,7 @@
         <v>1.2</v>
       </c>
       <c r="H15" s="9">
-        <f>A15*G15</f>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -1871,7 +2252,7 @@
         <v>8.41</v>
       </c>
       <c r="H16" s="9">
-        <f>A16*G16</f>
+        <f t="shared" si="2"/>
         <v>8.41</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -1901,7 +2282,7 @@
         <v>4.5</v>
       </c>
       <c r="H17" s="9">
-        <f>A17*G17</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -1931,7 +2312,7 @@
         <v>0.08</v>
       </c>
       <c r="H18" s="9">
-        <f>A18*G18</f>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -1961,7 +2342,7 @@
         <v>1.36</v>
       </c>
       <c r="H19" s="9">
-        <f>A19*G19</f>
+        <f t="shared" si="2"/>
         <v>1.36</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -1991,7 +2372,7 @@
         <v>0.08</v>
       </c>
       <c r="H20" s="9">
-        <f>A20*G20</f>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -2021,7 +2402,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H21" s="9">
-        <f>A21*G21</f>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -2048,7 +2429,7 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="9">
-        <f>A22*G22</f>
+        <f t="shared" si="2"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -2078,7 +2459,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="H23" s="9">
-        <f>A23*G23</f>
+        <f t="shared" si="2"/>
         <v>2.2799999999999998</v>
       </c>
       <c r="I23" s="5" t="s">
@@ -2108,7 +2489,7 @@
         <v>1.82</v>
       </c>
       <c r="H24" s="9">
-        <f>A24*G24</f>
+        <f t="shared" si="2"/>
         <v>1.82</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -2140,4 +2521,686 @@
     <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>5</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>3</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>6</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>6</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>